--- a/bin/xlsx/多语言表.xlsx
+++ b/bin/xlsx/多语言表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全局多语言" sheetId="2" r:id="rId1"/>
     <sheet name="界面多语言" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="164">
   <si>
     <t>大型粉碎</t>
   </si>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chinese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>english</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chinese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>english</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,13 +643,21 @@
   </si>
   <si>
     <t>命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,7 +714,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -797,6 +789,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -832,6 +841,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1007,516 +1033,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>98</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>101</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1527,24 +1553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1555,136 +1581,136 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
